--- a/data/raw/cheval_daten_tools_csv/cheval_daten_tools/bibeval/bibeval_tx_siisurveytool_areas.xlsx
+++ b/data/raw/cheval_daten_tools_csv/cheval_daten_tools/bibeval/bibeval_tx_siisurveytool_areas.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin\Documents\Projektkurs 2\fhgr_pk1\data\raw\cheval_daten_tools_csv\cheval_daten_tools\bibeval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninop\Documents\Schule\FS21\PK1\Projekt\Entwicklung\fhgr_pk1\data\raw\cheval_daten_tools_csv\cheval_daten_tools\bibeval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02243B37-0DA3-44D1-B7B3-FDA107EF1734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C8AE2-70B9-4854-A105-56A81160E532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C526859-9194-4FAB-9D43-70F63F7CBEFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C526859-9194-4FAB-9D43-70F63F7CBEFD}"/>
   </bookViews>
   <sheets>
     <sheet name="bibeval_tx_siisurveytool_areas" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">bibeval_tx_siisurveytool_areas!$A$1:$L$4</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">bibeval_tx_siisurveytool_areas!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,28 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>tstamp</t>
-  </si>
-  <si>
-    <t>lmuser_id</t>
-  </si>
-  <si>
-    <t>crdate</t>
-  </si>
-  <si>
-    <t>cruser_id</t>
-  </si>
-  <si>
-    <t>deleted</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>hidden</t>
   </si>
@@ -79,9 +57,6 @@
   </si>
   <si>
     <t>name_en</t>
-  </si>
-  <si>
-    <t>order_number</t>
   </si>
   <si>
     <t>nur Katalog</t>
@@ -165,40 +140,34 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{79AE4997-D0AE-4F26-B547-04076DE11720}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
-    <queryTableFields count="12">
-      <queryTableField id="1" name="uid" tableColumnId="1"/>
-      <queryTableField id="2" name="pid" tableColumnId="2"/>
-      <queryTableField id="3" name="tstamp" tableColumnId="3"/>
-      <queryTableField id="4" name="lmuser_id" tableColumnId="4"/>
-      <queryTableField id="5" name="crdate" tableColumnId="5"/>
-      <queryTableField id="6" name="cruser_id" tableColumnId="6"/>
-      <queryTableField id="7" name="deleted" tableColumnId="7"/>
+    <queryTableFields count="4">
       <queryTableField id="8" name="hidden" tableColumnId="8"/>
       <queryTableField id="9" name="root_category_id" tableColumnId="9"/>
       <queryTableField id="10" name="name_de" tableColumnId="10"/>
       <queryTableField id="11" name="name_en" tableColumnId="11"/>
-      <queryTableField id="12" name="order_number" tableColumnId="12"/>
     </queryTableFields>
+    <queryTableDeletedFields count="8">
+      <deletedField name="uid"/>
+      <deletedField name="pid"/>
+      <deletedField name="tstamp"/>
+      <deletedField name="lmuser_id"/>
+      <deletedField name="crdate"/>
+      <deletedField name="cruser_id"/>
+      <deletedField name="deleted"/>
+      <deletedField name="order_number"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEFCF63B-08DF-400A-A81F-E556DC7A19AF}" name="bibeval_tx_siisurveytool_areas" displayName="bibeval_tx_siisurveytool_areas" ref="A1:L4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L4" xr:uid="{7BB089AE-D819-4A1A-A944-284CBEA7C4A0}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EE24AE5F-DA8A-4E80-ADC9-821E5E4FF207}" uniqueName="1" name="uid" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{327E4EDA-8038-45A8-A410-8F1DFE10483F}" uniqueName="2" name="pid" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A217851D-FE39-4C2B-B2A1-685D7EC41A7A}" uniqueName="3" name="tstamp" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{60EC0BA5-BC87-4556-AD0B-528D5D95302B}" uniqueName="4" name="lmuser_id" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{91BD0CDC-8C95-4839-A976-492B433CBBC3}" uniqueName="5" name="crdate" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{8F8C6CF1-560E-4DF1-9A90-F441D6F9981D}" uniqueName="6" name="cruser_id" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{E8951B51-D9BF-4A6A-9EEC-8F0A8C290F04}" uniqueName="7" name="deleted" queryTableFieldId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEFCF63B-08DF-400A-A81F-E556DC7A19AF}" name="bibeval_tx_siisurveytool_areas" displayName="bibeval_tx_siisurveytool_areas" ref="A1:D4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{7BB089AE-D819-4A1A-A944-284CBEA7C4A0}"/>
+  <tableColumns count="4">
     <tableColumn id="8" xr3:uid="{E77BBB19-A846-4B99-97A3-ED551A75E52E}" uniqueName="8" name="hidden" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{B275B590-8457-48B6-AFAA-CF5E14BC0BC2}" uniqueName="9" name="root_category_id" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{2D0244BC-63A8-417B-9974-9153EECEB9A4}" uniqueName="10" name="name_de" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{11C29132-B773-4FAD-8C2B-4DDEE8D49C6D}" uniqueName="11" name="name_en" queryTableFieldId="11" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{06DA0721-5DBC-4ABF-97EC-8CEA7DBABD1D}" uniqueName="12" name="order_number" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,26 +470,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D284539A-E375-490E-9E41-EDA55CE0FF2B}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,143 +497,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>754</v>
-      </c>
-      <c r="C2">
-        <v>1345708806</v>
-      </c>
-      <c r="D2">
-        <v>103</v>
-      </c>
-      <c r="E2">
-        <v>1345708806</v>
-      </c>
-      <c r="F2">
-        <v>103</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>754</v>
-      </c>
-      <c r="C3">
-        <v>1345708905</v>
-      </c>
-      <c r="D3">
-        <v>103</v>
-      </c>
-      <c r="E3">
-        <v>1345708905</v>
-      </c>
-      <c r="F3">
-        <v>103</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>754</v>
-      </c>
-      <c r="C4">
-        <v>1345709007</v>
-      </c>
-      <c r="D4">
-        <v>103</v>
-      </c>
-      <c r="E4">
-        <v>1345709007</v>
-      </c>
-      <c r="F4">
-        <v>103</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
